--- a/Check.xlsx
+++ b/Check.xlsx
@@ -563,20 +563,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -600,6 +586,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -813,8 +813,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -842,12 +842,12 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" ht="12.75">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -859,11 +859,11 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75">
+      <c r="A3" s="20"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -873,11 +873,11 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75">
+      <c r="A4" s="21"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -887,11 +887,11 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75">
+      <c r="A5" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -903,11 +903,11 @@
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75">
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -917,11 +917,11 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="12.75">
-      <c r="A7" s="9"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -931,11 +931,11 @@
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A8" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A8" s="20"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -945,13 +945,13 @@
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="12.75">
-      <c r="A9" s="9"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -961,11 +961,11 @@
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75">
+      <c r="A10" s="20"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -975,11 +975,11 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75">
+      <c r="A11" s="20"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -989,11 +989,11 @@
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75">
+      <c r="A12" s="20"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1003,11 +1003,11 @@
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75">
+      <c r="A13" s="21"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1017,11 +1017,11 @@
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75">
+      <c r="A14" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1033,11 +1033,11 @@
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75">
+      <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1047,11 +1047,11 @@
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75">
+      <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1061,11 +1061,11 @@
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75">
+      <c r="A17" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1077,11 +1077,11 @@
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75">
+      <c r="A18" s="20"/>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1091,11 +1091,11 @@
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75">
+      <c r="A19" s="20"/>
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1105,11 +1105,11 @@
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75">
+      <c r="A20" s="20"/>
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1119,11 +1119,11 @@
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.75">
+      <c r="A21" s="21"/>
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1133,11 +1133,11 @@
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="11" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="25.5">
+      <c r="A22" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1149,11 +1149,11 @@
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" ht="25.5">
+      <c r="A23" s="20"/>
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
@@ -1163,13 +1163,13 @@
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.75">
+      <c r="A24" s="20"/>
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
@@ -1179,11 +1179,11 @@
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="25.5">
+      <c r="A25" s="20"/>
       <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
@@ -1193,13 +1193,13 @@
       <c r="D25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="12.75">
+      <c r="A26" s="20"/>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
@@ -1209,11 +1209,11 @@
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="25.5">
+      <c r="A27" s="20"/>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
@@ -1223,11 +1223,11 @@
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.75">
+      <c r="A28" s="20"/>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
@@ -1237,11 +1237,11 @@
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="25.5">
+      <c r="A29" s="20"/>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
@@ -1251,11 +1251,11 @@
       <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="25.5">
+      <c r="A30" s="20"/>
       <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
@@ -1265,11 +1265,11 @@
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="12.75">
+      <c r="A31" s="20"/>
       <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
@@ -1279,11 +1279,11 @@
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" ht="25.5">
+      <c r="A32" s="20"/>
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
@@ -1293,11 +1293,11 @@
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="12.75">
+      <c r="A33" s="21"/>
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
@@ -1307,11 +1307,11 @@
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="11" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="12.75">
+      <c r="A34" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1323,11 +1323,11 @@
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="12.75">
+      <c r="A35" s="20"/>
       <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
@@ -1337,11 +1337,11 @@
       <c r="D35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" ht="12.75">
+      <c r="A36" s="20"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
       </c>
@@ -1351,11 +1351,11 @@
       <c r="D36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" ht="12.75">
+      <c r="A37" s="20"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
       </c>
@@ -1365,11 +1365,11 @@
       <c r="D37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="12.75">
+      <c r="A38" s="20"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
       </c>
@@ -1379,11 +1379,11 @@
       <c r="D38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="12.75">
+      <c r="A39" s="20"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
       </c>
@@ -1393,11 +1393,11 @@
       <c r="D39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="9"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" ht="12.75">
+      <c r="A40" s="20"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
       </c>
@@ -1407,11 +1407,11 @@
       <c r="D40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" ht="12.75">
+      <c r="A41" s="20"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
       </c>
@@ -1421,11 +1421,11 @@
       <c r="D41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" ht="12.75">
+      <c r="A42" s="20"/>
       <c r="B42" s="4" t="s">
         <v>55</v>
       </c>
@@ -1435,11 +1435,11 @@
       <c r="D42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" ht="12.75">
+      <c r="A43" s="20"/>
       <c r="B43" s="4" t="s">
         <v>56</v>
       </c>
@@ -1449,11 +1449,11 @@
       <c r="D43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:6" ht="12.75">
+      <c r="A44" s="20"/>
       <c r="B44" s="4" t="s">
         <v>30</v>
       </c>
@@ -1463,11 +1463,11 @@
       <c r="D44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" ht="12.75">
+      <c r="A45" s="20"/>
       <c r="B45" s="4" t="s">
         <v>57</v>
       </c>
@@ -1477,11 +1477,11 @@
       <c r="D45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" ht="12.75">
+      <c r="A46" s="20"/>
       <c r="B46" s="4" t="s">
         <v>58</v>
       </c>
@@ -1491,11 +1491,11 @@
       <c r="D46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" ht="12.75">
+      <c r="A47" s="20"/>
       <c r="B47" s="4" t="s">
         <v>59</v>
       </c>
@@ -1505,11 +1505,11 @@
       <c r="D47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:6" ht="12.75">
+      <c r="A48" s="20"/>
       <c r="B48" s="4" t="s">
         <v>60</v>
       </c>
@@ -1519,11 +1519,11 @@
       <c r="D48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:6" ht="12.75">
+      <c r="A49" s="20"/>
       <c r="B49" s="4" t="s">
         <v>61</v>
       </c>
@@ -1533,11 +1533,11 @@
       <c r="D49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:6" ht="12.75">
+      <c r="A50" s="20"/>
       <c r="B50" s="4" t="s">
         <v>62</v>
       </c>
@@ -1547,11 +1547,11 @@
       <c r="D50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:6" ht="12.75">
+      <c r="A51" s="20"/>
       <c r="B51" s="4" t="s">
         <v>63</v>
       </c>
@@ -1561,11 +1561,11 @@
       <c r="D51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="21"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="15"/>
     </row>
     <row r="52" spans="1:6" ht="12.75">
-      <c r="A52" s="9"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="4" t="s">
         <v>64</v>
       </c>
@@ -1575,11 +1575,11 @@
       <c r="D52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="21"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="15"/>
     </row>
     <row r="53" spans="1:6" ht="25.5">
-      <c r="A53" s="9"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="2" t="s">
         <v>65</v>
       </c>
@@ -1589,13 +1589,13 @@
       <c r="D53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="21"/>
+      <c r="F53" s="15"/>
     </row>
     <row r="54" spans="1:6" ht="38.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="3" t="s">
         <v>67</v>
       </c>
@@ -1605,15 +1605,15 @@
       <c r="D54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75">
-      <c r="A55" s="9"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="4" t="s">
         <v>68</v>
       </c>
@@ -1623,11 +1623,11 @@
       <c r="D55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="21"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6" ht="12.75">
-      <c r="A56" s="9"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="4" t="s">
         <v>69</v>
       </c>
@@ -1637,11 +1637,11 @@
       <c r="D56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="1:6" ht="12.75">
+      <c r="A57" s="20"/>
       <c r="B57" s="4" t="s">
         <v>70</v>
       </c>
@@ -1651,11 +1651,11 @@
       <c r="D57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="9"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="1:6" ht="12.75">
+      <c r="A58" s="20"/>
       <c r="B58" s="4" t="s">
         <v>71</v>
       </c>
@@ -1665,11 +1665,11 @@
       <c r="D58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" spans="1:6" ht="12.75">
+      <c r="A59" s="21"/>
       <c r="B59" s="4" t="s">
         <v>72</v>
       </c>
@@ -1679,11 +1679,11 @@
       <c r="D59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="8" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="1:6" ht="12.75">
+      <c r="A60" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -1695,11 +1695,11 @@
       <c r="D60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="21"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="15"/>
     </row>
     <row r="61" spans="1:6" ht="12.75">
-      <c r="A61" s="9"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="4" t="s">
         <v>75</v>
       </c>
@@ -1709,11 +1709,11 @@
       <c r="D61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="21"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="15"/>
     </row>
     <row r="62" spans="1:6" ht="38.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="5" t="s">
         <v>76</v>
       </c>
@@ -1723,15 +1723,15 @@
       <c r="D62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75">
-      <c r="A63" s="9"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="5" t="s">
         <v>78</v>
       </c>
@@ -1741,11 +1741,11 @@
       <c r="D63" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="9"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" spans="1:6" ht="12.75">
+      <c r="A64" s="20"/>
       <c r="B64" s="5" t="s">
         <v>79</v>
       </c>
@@ -1755,11 +1755,11 @@
       <c r="D64" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="9"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="1:6" ht="12.75">
+      <c r="A65" s="20"/>
       <c r="B65" s="5" t="s">
         <v>80</v>
       </c>
@@ -1769,11 +1769,11 @@
       <c r="D65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="10"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" spans="1:6" ht="12.75">
+      <c r="A66" s="21"/>
       <c r="B66" s="5" t="s">
         <v>81</v>
       </c>
@@ -1783,11 +1783,11 @@
       <c r="D66" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="21"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="8" t="s">
+      <c r="E66" s="13"/>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" spans="1:6" ht="12.75">
+      <c r="A67" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -1799,11 +1799,11 @@
       <c r="D67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="9"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" spans="1:6" ht="12.75">
+      <c r="A68" s="20"/>
       <c r="B68" s="5" t="s">
         <v>84</v>
       </c>
@@ -1813,11 +1813,11 @@
       <c r="D68" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="9"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="1:6" ht="12.75">
+      <c r="A69" s="20"/>
       <c r="B69" s="5" t="s">
         <v>85</v>
       </c>
@@ -1827,11 +1827,11 @@
       <c r="D69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="10"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" spans="1:6" ht="12.75">
+      <c r="A70" s="21"/>
       <c r="B70" s="5" t="s">
         <v>86</v>
       </c>
@@ -1841,11 +1841,11 @@
       <c r="D70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="11" t="s">
+      <c r="E70" s="13"/>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="1:6" ht="12.75">
+      <c r="A71" s="22" t="s">
         <v>87</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -1857,11 +1857,11 @@
       <c r="D71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="19"/>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="9"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" spans="1:6" ht="12.75">
+      <c r="A72" s="20"/>
       <c r="B72" s="5" t="s">
         <v>89</v>
       </c>
@@ -1871,11 +1871,11 @@
       <c r="D72" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="9"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="1:6" ht="12.75">
+      <c r="A73" s="20"/>
       <c r="B73" s="7" t="s">
         <v>90</v>
       </c>
@@ -1885,11 +1885,11 @@
       <c r="D73" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="21"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="15"/>
     </row>
     <row r="74" spans="1:6" ht="12.75">
-      <c r="A74" s="9"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="4" t="s">
         <v>91</v>
       </c>
@@ -1899,11 +1899,11 @@
       <c r="D74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="21"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="15"/>
     </row>
     <row r="75" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A75" s="9"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="6" t="s">
         <v>109</v>
       </c>
@@ -1913,15 +1913,15 @@
       <c r="D75" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F75" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="12.75">
-      <c r="A76" s="9"/>
+      <c r="A76" s="20"/>
       <c r="B76" s="4" t="s">
         <v>94</v>
       </c>
@@ -1931,11 +1931,11 @@
       <c r="D76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" spans="1:6" ht="12.75">
+      <c r="A77" s="20"/>
       <c r="B77" s="4" t="s">
         <v>95</v>
       </c>
@@ -1945,11 +1945,11 @@
       <c r="D77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="9"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="15"/>
+    </row>
+    <row r="78" spans="1:6" ht="12.75">
+      <c r="A78" s="20"/>
       <c r="B78" s="4" t="s">
         <v>96</v>
       </c>
@@ -1959,11 +1959,11 @@
       <c r="D78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="15"/>
+    </row>
+    <row r="79" spans="1:6" ht="12.75">
+      <c r="A79" s="21"/>
       <c r="B79" s="4" t="s">
         <v>97</v>
       </c>
@@ -1973,11 +1973,11 @@
       <c r="D79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="8" t="s">
+      <c r="E79" s="10"/>
+      <c r="F79" s="15"/>
+    </row>
+    <row r="80" spans="1:6" ht="12.75">
+      <c r="A80" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -1989,11 +1989,11 @@
       <c r="D80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="16"/>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="9"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="15"/>
+    </row>
+    <row r="81" spans="1:6" ht="12.75">
+      <c r="A81" s="20"/>
       <c r="B81" s="4" t="s">
         <v>100</v>
       </c>
@@ -2003,11 +2003,11 @@
       <c r="D81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="16"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="9"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="15"/>
+    </row>
+    <row r="82" spans="1:6" ht="12.75">
+      <c r="A82" s="20"/>
       <c r="B82" s="4" t="s">
         <v>101</v>
       </c>
@@ -2017,11 +2017,11 @@
       <c r="D82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="16"/>
-      <c r="F82" s="21"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="15"/>
     </row>
     <row r="83" spans="1:6" ht="12.75">
-      <c r="A83" s="10"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="4" t="s">
         <v>102</v>
       </c>
@@ -2031,11 +2031,11 @@
       <c r="D83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="21"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="15"/>
     </row>
     <row r="84" spans="1:6" ht="38.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="19" t="s">
         <v>103</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -2047,15 +2047,15 @@
       <c r="D84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F84" s="23" t="s">
+      <c r="F84" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="38.25">
-      <c r="A85" s="9"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="5" t="s">
         <v>89</v>
       </c>
@@ -2065,15 +2065,15 @@
       <c r="D85" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F85" s="23" t="s">
+      <c r="F85" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="12.75">
-      <c r="A86" s="9"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="7" t="s">
         <v>90</v>
       </c>
@@ -2083,11 +2083,11 @@
       <c r="D86" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="16"/>
-      <c r="F86" s="21"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="15"/>
     </row>
     <row r="87" spans="1:6" ht="38.25">
-      <c r="A87" s="9"/>
+      <c r="A87" s="20"/>
       <c r="B87" s="6" t="s">
         <v>91</v>
       </c>
@@ -2097,15 +2097,15 @@
       <c r="D87" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E87" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F87" s="23" t="s">
+      <c r="F87" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="12.75">
-      <c r="A88" s="9"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="5" t="s">
         <v>92</v>
       </c>
@@ -2115,11 +2115,11 @@
       <c r="D88" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="16"/>
-      <c r="F88" s="21"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="9"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="15"/>
+    </row>
+    <row r="89" spans="1:6" ht="12.75">
+      <c r="A89" s="20"/>
       <c r="B89" s="4" t="s">
         <v>94</v>
       </c>
@@ -2129,11 +2129,11 @@
       <c r="D89" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="21"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="15"/>
     </row>
     <row r="90" spans="1:6" ht="12.75">
-      <c r="A90" s="9"/>
+      <c r="A90" s="20"/>
       <c r="B90" s="4" t="s">
         <v>95</v>
       </c>
@@ -2143,11 +2143,11 @@
       <c r="D90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="21"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="15"/>
     </row>
     <row r="91" spans="1:6" ht="39" customHeight="1">
-      <c r="A91" s="9"/>
+      <c r="A91" s="20"/>
       <c r="B91" s="6" t="s">
         <v>96</v>
       </c>
@@ -2157,15 +2157,15 @@
       <c r="D91" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F91" s="23" t="s">
+      <c r="F91" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="38.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="6" t="s">
         <v>97</v>
       </c>
@@ -2175,10 +2175,10 @@
       <c r="D92" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F92" s="23" t="s">
+      <c r="F92" s="17" t="s">
         <v>119</v>
       </c>
     </row>
